--- a/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24E867B-9B55-4DF4-A299-D7740A99BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C89B301-4C70-43CE-8BB3-C683A6E555A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F4C328F-BD2A-4C55-AA22-634C28BCCAFC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E75884-D626-4330-A059-C27020D42163}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1225 +77,1219 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>15,04%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>89,56%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>11,35%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>26,97%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>88,65%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>73,03%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14CD489-5E7A-4499-9DEA-B3BF7B1AEF2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A15BFB1-4BE2-4165-9F9A-72A4FA54C346}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1849,10 +1843,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -1861,19 +1855,19 @@
         <v>15379</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>100</v>
@@ -1882,13 +1876,13 @@
         <v>109829</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -1897,13 +1891,13 @@
         <v>102906</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -1912,13 +1906,13 @@
         <v>212734</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1927,13 @@
         <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>128</v>
@@ -1948,13 +1942,13 @@
         <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>233</v>
@@ -1963,18 +1957,18 @@
         <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1986,13 +1980,13 @@
         <v>35266</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -2001,13 +1995,13 @@
         <v>47685</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -2016,19 +2010,19 @@
         <v>82951</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>541</v>
@@ -2037,13 +2031,13 @@
         <v>542370</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>521</v>
@@ -2052,13 +2046,13 @@
         <v>527911</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1062</v>
@@ -2067,13 +2061,13 @@
         <v>1070281</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2082,13 @@
         <v>577636</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>568</v>
@@ -2103,13 +2097,13 @@
         <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1145</v>
@@ -2118,18 +2112,18 @@
         <v>1153232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2141,13 +2135,13 @@
         <v>56233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -2156,13 +2150,13 @@
         <v>87992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -2171,19 +2165,19 @@
         <v>144225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>841</v>
@@ -2192,13 +2186,13 @@
         <v>905567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>826</v>
@@ -2207,13 +2201,13 @@
         <v>880401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1667</v>
@@ -2222,13 +2216,13 @@
         <v>1785968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2237,13 @@
         <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>908</v>
@@ -2258,13 +2252,13 @@
         <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1804</v>
@@ -2273,18 +2267,18 @@
         <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2296,13 +2290,13 @@
         <v>37301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -2311,13 +2305,13 @@
         <v>50634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -2326,19 +2320,19 @@
         <v>87934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>604</v>
@@ -2347,13 +2341,13 @@
         <v>641208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -2362,13 +2356,13 @@
         <v>633207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1248</v>
@@ -2377,13 +2371,13 @@
         <v>1274416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2392,13 @@
         <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>696</v>
@@ -2413,13 +2407,13 @@
         <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1337</v>
@@ -2428,18 +2422,18 @@
         <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2445,13 @@
         <v>56320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -2466,13 +2460,13 @@
         <v>70602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -2481,19 +2475,19 @@
         <v>126922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>930</v>
@@ -2502,13 +2496,13 @@
         <v>885902</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
@@ -2517,13 +2511,13 @@
         <v>968010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1860</v>
@@ -2532,13 +2526,13 @@
         <v>1853912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2547,13 @@
         <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>997</v>
@@ -2568,13 +2562,13 @@
         <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1991</v>
@@ -2583,13 +2577,13 @@
         <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2600,13 @@
         <v>190649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -2621,13 +2615,13 @@
         <v>266762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>456</v>
@@ -2636,34 +2630,34 @@
         <v>457412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3016</v>
       </c>
       <c r="D20" s="7">
-        <v>3084876</v>
+        <v>3084877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>3038</v>
@@ -2672,28 +2666,28 @@
         <v>3112436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>6054</v>
       </c>
       <c r="N20" s="7">
-        <v>6197310</v>
+        <v>6197311</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,16 +2699,16 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3297</v>
@@ -2723,33 +2717,33 @@
         <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577BB11A-DBBF-4DC7-B45B-338D6D5A62A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA9D8DC-A95D-4832-8840-954004A2D027}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,13 +2888,13 @@
         <v>14812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2909,13 +2903,13 @@
         <v>19401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2924,19 +2918,19 @@
         <v>34214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>105</v>
@@ -2945,13 +2939,13 @@
         <v>100140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -2960,13 +2954,13 @@
         <v>92504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>186</v>
@@ -2975,13 +2969,13 @@
         <v>192643</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2990,13 @@
         <v>114952</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -3011,13 +3005,13 @@
         <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -3026,18 +3020,18 @@
         <v>226857</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3049,13 +3043,13 @@
         <v>69322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -3064,13 +3058,13 @@
         <v>76653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -3079,19 +3073,19 @@
         <v>145975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>488</v>
@@ -3100,13 +3094,13 @@
         <v>516492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -3115,13 +3109,13 @@
         <v>505780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -3130,13 +3124,13 @@
         <v>1022272</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3145,13 @@
         <v>585814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>549</v>
@@ -3166,13 +3160,13 @@
         <v>582433</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1099</v>
@@ -3181,18 +3175,18 @@
         <v>1168247</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3204,13 +3198,13 @@
         <v>102230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -3219,13 +3213,13 @@
         <v>118709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -3234,19 +3228,19 @@
         <v>220940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>844</v>
@@ -3255,13 +3249,13 @@
         <v>915717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -3270,13 +3264,13 @@
         <v>907986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -3285,13 +3279,13 @@
         <v>1823702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3300,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>935</v>
@@ -3321,13 +3315,13 @@
         <v>1026695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1871</v>
@@ -3336,18 +3330,18 @@
         <v>2044642</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3359,13 +3353,13 @@
         <v>68784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -3374,13 +3368,13 @@
         <v>98834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -3389,19 +3383,19 @@
         <v>167618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>629</v>
@@ -3410,13 +3404,13 @@
         <v>687754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>616</v>
@@ -3425,13 +3419,13 @@
         <v>677449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1245</v>
@@ -3440,13 +3434,13 @@
         <v>1365203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3455,13 @@
         <v>756538</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>704</v>
@@ -3476,13 +3470,13 @@
         <v>776283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -3491,18 +3485,18 @@
         <v>1532821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3514,13 +3508,13 @@
         <v>96839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -3529,13 +3523,13 @@
         <v>121969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3544,19 +3538,19 @@
         <v>218809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>821</v>
@@ -3565,13 +3559,13 @@
         <v>849091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>885</v>
@@ -3580,13 +3574,13 @@
         <v>926794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>1706</v>
@@ -3595,13 +3589,13 @@
         <v>1775885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3610,13 @@
         <v>945930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
@@ -3631,13 +3625,13 @@
         <v>1048763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1908</v>
@@ -3646,13 +3640,13 @@
         <v>1994694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3663,13 @@
         <v>351988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>400</v>
@@ -3684,13 +3678,13 @@
         <v>435567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>716</v>
@@ -3699,19 +3693,19 @@
         <v>787555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>2887</v>
@@ -3720,13 +3714,13 @@
         <v>3069194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>2887</v>
@@ -3735,13 +3729,13 @@
         <v>3110513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>5774</v>
@@ -3750,13 +3744,13 @@
         <v>6179706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3765,13 @@
         <v>3421182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3287</v>
@@ -3786,13 +3780,13 @@
         <v>3546080</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6490</v>
@@ -3801,18 +3795,18 @@
         <v>6967261</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +3827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A0B925-B76D-426A-AD4C-2137C642DAA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718DF6C9-1364-4C89-B11F-C64C5D02CAAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3951,13 @@
         <v>16527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3972,13 +3966,13 @@
         <v>12124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3987,19 +3981,19 @@
         <v>28651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>96</v>
@@ -4008,13 +4002,13 @@
         <v>100019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -4023,13 +4017,13 @@
         <v>101236</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -4038,13 +4032,13 @@
         <v>201255</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4053,13 @@
         <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -4074,13 +4068,13 @@
         <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -4089,18 +4083,18 @@
         <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4112,13 +4106,13 @@
         <v>62058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -4127,13 +4121,13 @@
         <v>79461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -4142,19 +4136,19 @@
         <v>141519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>476</v>
@@ -4163,13 +4157,13 @@
         <v>496196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -4178,13 +4172,13 @@
         <v>480018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>952</v>
@@ -4193,13 +4187,13 @@
         <v>976214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4208,13 @@
         <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -4229,13 +4223,13 @@
         <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
@@ -4244,18 +4238,18 @@
         <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4267,13 +4261,13 @@
         <v>97710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -4282,13 +4276,13 @@
         <v>125208</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -4297,19 +4291,19 @@
         <v>222918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>857</v>
@@ -4318,13 +4312,13 @@
         <v>924721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>870</v>
@@ -4333,13 +4327,13 @@
         <v>917705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>1727</v>
@@ -4348,13 +4342,13 @@
         <v>1842426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4363,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -4384,13 +4378,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -4399,18 +4393,18 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4422,13 +4416,13 @@
         <v>72173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -4437,13 +4431,13 @@
         <v>61576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -4452,19 +4446,19 @@
         <v>133749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>626</v>
@@ -4473,13 +4467,13 @@
         <v>687379</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -4488,13 +4482,13 @@
         <v>723435</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -4503,13 +4497,13 @@
         <v>1410814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4518,13 @@
         <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>736</v>
@@ -4539,13 +4533,13 @@
         <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1432</v>
@@ -4554,18 +4548,18 @@
         <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4592,13 +4586,13 @@
         <v>111582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -4607,19 +4601,19 @@
         <v>181676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>859</v>
@@ -4628,13 +4622,13 @@
         <v>867472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>866</v>
@@ -4643,13 +4637,13 @@
         <v>932197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>1725</v>
@@ -4658,13 +4652,13 @@
         <v>1799670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4673,13 @@
         <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>959</v>
@@ -4694,13 +4688,13 @@
         <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1891</v>
@@ -4709,13 +4703,13 @@
         <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4726,13 @@
         <v>318563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4747,13 +4741,13 @@
         <v>389951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>656</v>
@@ -4762,19 +4756,19 @@
         <v>708514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>2914</v>
@@ -4783,13 +4777,13 @@
         <v>3075787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>2999</v>
@@ -4798,10 +4792,10 @@
         <v>3154591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>316</v>
@@ -4834,13 +4828,13 @@
         <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>3338</v>
@@ -4849,13 +4843,13 @@
         <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>6569</v>
@@ -4864,18 +4858,18 @@
         <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +4890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04404C1A-F0AD-45A9-A8FA-410C55E5767B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76C5E4E-F8CA-498A-A789-099009C98295}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5062,7 +5056,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>100</v>
@@ -5122,13 +5116,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -5137,13 +5131,13 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>361</v>
@@ -5152,18 +5146,18 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5175,13 +5169,13 @@
         <v>80206</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -5190,13 +5184,13 @@
         <v>89080</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>306</v>
@@ -5205,19 +5199,19 @@
         <v>169286</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>497</v>
@@ -5226,13 +5220,13 @@
         <v>469617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>805</v>
@@ -5241,13 +5235,13 @@
         <v>503882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>1302</v>
@@ -5256,13 +5250,13 @@
         <v>973499</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5271,13 @@
         <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>996</v>
@@ -5292,13 +5286,13 @@
         <v>592962</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1608</v>
@@ -5307,18 +5301,18 @@
         <v>1142785</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5330,13 +5324,13 @@
         <v>115178</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>262</v>
@@ -5345,13 +5339,13 @@
         <v>143236</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -5360,19 +5354,19 @@
         <v>258414</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>810</v>
@@ -5381,13 +5375,13 @@
         <v>924070</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>1254</v>
@@ -5396,13 +5390,13 @@
         <v>916238</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>2064</v>
@@ -5411,13 +5405,13 @@
         <v>1840308</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5426,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1516</v>
@@ -5447,13 +5441,13 @@
         <v>1059474</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>2480</v>
@@ -5462,18 +5456,18 @@
         <v>2098722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5485,13 +5479,13 @@
         <v>90940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5500,13 +5494,13 @@
         <v>201498</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -5515,19 +5509,19 @@
         <v>292438</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>572</v>
@@ -5536,13 +5530,13 @@
         <v>636761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>903</v>
@@ -5551,13 +5545,13 @@
         <v>672248</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>1475</v>
@@ -5566,13 +5560,13 @@
         <v>1309009</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5581,13 @@
         <v>727701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1046</v>
@@ -5602,13 +5596,13 @@
         <v>873746</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1721</v>
@@ -5617,18 +5611,18 @@
         <v>1601447</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,19 +5664,19 @@
         <v>294663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>844</v>
@@ -5691,13 +5685,13 @@
         <v>843348</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>1271</v>
@@ -5706,13 +5700,13 @@
         <v>973695</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>2115</v>
@@ -5721,13 +5715,13 @@
         <v>1817043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5736,13 @@
         <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1559</v>
@@ -5757,13 +5751,13 @@
         <v>1146303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>2565</v>
@@ -5772,13 +5766,13 @@
         <v>2111706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5789,13 @@
         <v>420607</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>944</v>
@@ -5810,13 +5804,13 @@
         <v>630677</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>1496</v>
@@ -5825,19 +5819,19 @@
         <v>1051284</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>2823</v>
@@ -5846,13 +5840,13 @@
         <v>2963551</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>4416</v>
@@ -5861,28 +5855,28 @@
         <v>3172541</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
         <v>7239</v>
       </c>
       <c r="N20" s="7">
-        <v>6136091</v>
+        <v>6136092</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5891,13 @@
         <v>3384158</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>5360</v>
@@ -5912,33 +5906,33 @@
         <v>3803218</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C89B301-4C70-43CE-8BB3-C683A6E555A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4128056-9DAC-4DC5-B756-0A9304FA74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E75884-D626-4330-A059-C27020D42163}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F6E2FE2-E96A-482A-9B48-3E5A8EF546E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,25 +77,28 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>15,04%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,981 +107,1002 @@
     <t>95,21%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>84,96%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>6,16%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
     <t>82,58%</t>
   </si>
   <si>
@@ -1205,9 +1229,6 @@
     <t>12,64%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
     <t>14,84%</t>
   </si>
   <si>
@@ -1229,9 +1250,6 @@
     <t>85,16%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
     <t>84,94%</t>
   </si>
   <si>
@@ -1244,9 +1262,6 @@
     <t>86,05%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
     <t>11,31%</t>
   </si>
   <si>
@@ -1266,9 +1281,6 @@
   </si>
   <si>
     <t>20,65%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
   </si>
   <si>
     <t>86,41%</t>
@@ -1701,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A15BFB1-4BE2-4165-9F9A-72A4FA54C346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F0B3F9-0D58-4D87-989F-1527E96890C8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1843,10 +1855,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -1855,19 +1867,19 @@
         <v>15379</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>100</v>
@@ -1876,13 +1888,13 @@
         <v>109829</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -1891,13 +1903,13 @@
         <v>102906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>217</v>
@@ -1906,13 +1918,13 @@
         <v>212734</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1939,13 @@
         <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>128</v>
@@ -1942,13 +1954,13 @@
         <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>233</v>
@@ -1957,18 +1969,18 @@
         <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1980,13 +1992,13 @@
         <v>35266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -1995,13 +2007,13 @@
         <v>47685</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -2010,19 +2022,19 @@
         <v>82951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>541</v>
@@ -2031,13 +2043,13 @@
         <v>542370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>521</v>
@@ -2046,13 +2058,13 @@
         <v>527911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1062</v>
@@ -2061,13 +2073,13 @@
         <v>1070281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2094,13 @@
         <v>577636</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>568</v>
@@ -2097,13 +2109,13 @@
         <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1145</v>
@@ -2112,18 +2124,18 @@
         <v>1153232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2135,13 +2147,13 @@
         <v>56233</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -2150,13 +2162,13 @@
         <v>87992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -2165,19 +2177,19 @@
         <v>144225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>841</v>
@@ -2186,13 +2198,13 @@
         <v>905567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>826</v>
@@ -2201,13 +2213,13 @@
         <v>880401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1667</v>
@@ -2216,13 +2228,13 @@
         <v>1785968</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2249,13 @@
         <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>908</v>
@@ -2252,13 +2264,13 @@
         <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1804</v>
@@ -2267,18 +2279,18 @@
         <v>1930193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2302,13 @@
         <v>37301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -2305,13 +2317,13 @@
         <v>50634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -2320,19 +2332,19 @@
         <v>87934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>604</v>
@@ -2341,13 +2353,13 @@
         <v>641208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -2356,13 +2368,13 @@
         <v>633207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1248</v>
@@ -2371,13 +2383,13 @@
         <v>1274416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2404,13 @@
         <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>696</v>
@@ -2407,13 +2419,13 @@
         <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1337</v>
@@ -2422,18 +2434,18 @@
         <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2445,13 +2457,13 @@
         <v>56320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -2460,13 +2472,13 @@
         <v>70602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -2475,19 +2487,19 @@
         <v>126922</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>930</v>
@@ -2496,13 +2508,13 @@
         <v>885902</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
@@ -2511,13 +2523,13 @@
         <v>968010</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1860</v>
@@ -2526,13 +2538,13 @@
         <v>1853912</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2559,13 @@
         <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>997</v>
@@ -2562,13 +2574,13 @@
         <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1991</v>
@@ -2577,13 +2589,13 @@
         <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2612,13 @@
         <v>190649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -2615,13 +2627,13 @@
         <v>266762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>456</v>
@@ -2630,34 +2642,34 @@
         <v>457412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3016</v>
       </c>
       <c r="D20" s="7">
-        <v>3084877</v>
+        <v>3084876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>3038</v>
@@ -2666,13 +2678,13 @@
         <v>3112436</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>6054</v>
@@ -2681,13 +2693,13 @@
         <v>6197311</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,16 +2711,16 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3297</v>
@@ -2717,13 +2729,13 @@
         <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6510</v>
@@ -2732,18 +2744,18 @@
         <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA9D8DC-A95D-4832-8840-954004A2D027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33598A-6130-4F51-A599-BB8F7D836F64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2781,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,13 +2900,13 @@
         <v>14812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -2903,13 +2915,13 @@
         <v>19401</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -2918,19 +2930,19 @@
         <v>34214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>105</v>
@@ -2939,13 +2951,13 @@
         <v>100140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>81</v>
@@ -2954,13 +2966,13 @@
         <v>92504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>186</v>
@@ -2969,13 +2981,13 @@
         <v>192643</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3002,13 @@
         <v>114952</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
@@ -3005,13 +3017,13 @@
         <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -3020,18 +3032,18 @@
         <v>226857</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3043,13 +3055,13 @@
         <v>69322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>72</v>
@@ -3058,13 +3070,13 @@
         <v>76653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>134</v>
@@ -3073,19 +3085,19 @@
         <v>145975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>488</v>
@@ -3094,13 +3106,13 @@
         <v>516492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -3109,13 +3121,13 @@
         <v>505780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>965</v>
@@ -3124,13 +3136,13 @@
         <v>1022272</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3157,13 @@
         <v>585814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>549</v>
@@ -3160,13 +3172,13 @@
         <v>582433</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1099</v>
@@ -3175,18 +3187,18 @@
         <v>1168247</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3198,13 +3210,13 @@
         <v>102230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -3213,13 +3225,13 @@
         <v>118709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -3228,19 +3240,19 @@
         <v>220940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>844</v>
@@ -3249,13 +3261,13 @@
         <v>915717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -3264,13 +3276,13 @@
         <v>907986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -3279,13 +3291,13 @@
         <v>1823702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3312,13 @@
         <v>1017947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>935</v>
@@ -3315,13 +3327,13 @@
         <v>1026695</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1871</v>
@@ -3330,18 +3342,18 @@
         <v>2044642</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3353,13 +3365,13 @@
         <v>68784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -3368,13 +3380,13 @@
         <v>98834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -3383,19 +3395,19 @@
         <v>167618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>629</v>
@@ -3404,13 +3416,13 @@
         <v>687754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>616</v>
@@ -3419,13 +3431,13 @@
         <v>677449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1245</v>
@@ -3434,13 +3446,13 @@
         <v>1365203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3467,13 @@
         <v>756538</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>704</v>
@@ -3470,13 +3482,13 @@
         <v>776283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -3485,18 +3497,18 @@
         <v>1532821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3508,13 +3520,13 @@
         <v>96839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -3523,13 +3535,13 @@
         <v>121969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3538,19 +3550,19 @@
         <v>218809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>821</v>
@@ -3559,13 +3571,13 @@
         <v>849091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>885</v>
@@ -3574,13 +3586,13 @@
         <v>926794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1706</v>
@@ -3589,13 +3601,13 @@
         <v>1775885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3622,13 @@
         <v>945930</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
@@ -3625,13 +3637,13 @@
         <v>1048763</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1908</v>
@@ -3640,13 +3652,13 @@
         <v>1994694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,13 +3675,13 @@
         <v>351988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>400</v>
@@ -3678,13 +3690,13 @@
         <v>435567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>716</v>
@@ -3693,19 +3705,19 @@
         <v>787555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>2887</v>
@@ -3714,13 +3726,13 @@
         <v>3069194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2887</v>
@@ -3729,13 +3741,13 @@
         <v>3110513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>5774</v>
@@ -3744,13 +3756,13 @@
         <v>6179706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3777,13 @@
         <v>3421182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3287</v>
@@ -3780,13 +3792,13 @@
         <v>3546080</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6490</v>
@@ -3795,18 +3807,18 @@
         <v>6967261</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718DF6C9-1364-4C89-B11F-C64C5D02CAAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4011102E-E2F4-461C-8F28-9E01579D8648}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,13 +3963,13 @@
         <v>16527</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3966,13 +3978,13 @@
         <v>12124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3981,19 +3993,19 @@
         <v>28651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>96</v>
@@ -4002,13 +4014,13 @@
         <v>100019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -4017,13 +4029,13 @@
         <v>101236</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -4032,13 +4044,13 @@
         <v>201255</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4065,13 @@
         <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>115</v>
@@ -4068,13 +4080,13 @@
         <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>228</v>
@@ -4083,18 +4095,18 @@
         <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4106,13 +4118,13 @@
         <v>62058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -4121,13 +4133,13 @@
         <v>79461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -4136,19 +4148,19 @@
         <v>141519</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>476</v>
@@ -4157,13 +4169,13 @@
         <v>496196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -4172,13 +4184,13 @@
         <v>480018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>952</v>
@@ -4187,13 +4199,13 @@
         <v>976214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4220,13 @@
         <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>551</v>
@@ -4223,13 +4235,13 @@
         <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1090</v>
@@ -4238,18 +4250,18 @@
         <v>1117733</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4261,13 +4273,13 @@
         <v>97710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -4276,13 +4288,13 @@
         <v>125208</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -4291,19 +4303,19 @@
         <v>222918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>857</v>
@@ -4312,13 +4324,13 @@
         <v>924721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>870</v>
@@ -4327,13 +4339,13 @@
         <v>917705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1727</v>
@@ -4342,13 +4354,13 @@
         <v>1842426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4375,13 @@
         <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>977</v>
@@ -4378,13 +4390,13 @@
         <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1928</v>
@@ -4393,18 +4405,18 @@
         <v>2065344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4416,13 +4428,13 @@
         <v>72173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -4431,13 +4443,13 @@
         <v>61576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -4446,19 +4458,19 @@
         <v>133749</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>626</v>
@@ -4467,13 +4479,13 @@
         <v>687379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -4482,13 +4494,13 @@
         <v>723435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -4497,13 +4509,13 @@
         <v>1410814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4530,13 @@
         <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>736</v>
@@ -4533,13 +4545,13 @@
         <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1432</v>
@@ -4548,18 +4560,18 @@
         <v>1544563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4571,13 +4583,13 @@
         <v>70095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -4586,13 +4598,13 @@
         <v>111582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -4601,19 +4613,19 @@
         <v>181676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>859</v>
@@ -4622,13 +4634,13 @@
         <v>867472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>866</v>
@@ -4637,13 +4649,13 @@
         <v>932197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>1725</v>
@@ -4652,13 +4664,13 @@
         <v>1799670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4685,13 @@
         <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>959</v>
@@ -4688,13 +4700,13 @@
         <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1891</v>
@@ -4703,13 +4715,13 @@
         <v>1981346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4738,13 @@
         <v>318563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4741,13 +4753,13 @@
         <v>389951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>656</v>
@@ -4756,19 +4768,19 @@
         <v>708514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>2914</v>
@@ -4777,13 +4789,13 @@
         <v>3075787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>2999</v>
@@ -4792,13 +4804,13 @@
         <v>3154591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>5913</v>
@@ -4807,13 +4819,13 @@
         <v>6230378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4840,13 @@
         <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>3338</v>
@@ -4843,13 +4855,13 @@
         <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>6569</v>
@@ -4858,18 +4870,18 @@
         <v>6938892</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4890,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76C5E4E-F8CA-498A-A789-099009C98295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A47F3BD-24B1-4B36-8245-8983FE86199D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4907,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,13 +5026,13 @@
         <v>12228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -5029,13 +5041,13 @@
         <v>24255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5044,19 +5056,19 @@
         <v>36483</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>100</v>
@@ -5065,13 +5077,13 @@
         <v>89754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5080,13 +5092,13 @@
         <v>106478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>283</v>
@@ -5095,13 +5107,13 @@
         <v>196232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5128,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -5131,13 +5143,13 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>361</v>
@@ -5146,18 +5158,18 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5169,13 +5181,13 @@
         <v>80206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -5184,13 +5196,13 @@
         <v>89080</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>306</v>
@@ -5199,19 +5211,19 @@
         <v>169286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>497</v>
@@ -5220,13 +5232,13 @@
         <v>469617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>805</v>
@@ -5235,13 +5247,13 @@
         <v>503882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>1302</v>
@@ -5250,13 +5262,13 @@
         <v>973499</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5283,13 @@
         <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>996</v>
@@ -5286,13 +5298,13 @@
         <v>592962</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1608</v>
@@ -5301,18 +5313,18 @@
         <v>1142785</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5324,13 +5336,13 @@
         <v>115178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>262</v>
@@ -5339,13 +5351,13 @@
         <v>143236</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -5354,19 +5366,19 @@
         <v>258414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>810</v>
@@ -5375,13 +5387,13 @@
         <v>924070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>1254</v>
@@ -5390,13 +5402,13 @@
         <v>916238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>2064</v>
@@ -5405,13 +5417,13 @@
         <v>1840308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5438,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1516</v>
@@ -5441,13 +5453,13 @@
         <v>1059474</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>2480</v>
@@ -5456,18 +5468,18 @@
         <v>2098722</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5479,13 +5491,13 @@
         <v>90940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5494,13 +5506,13 @@
         <v>201498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -5509,19 +5521,19 @@
         <v>292438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>572</v>
@@ -5530,13 +5542,13 @@
         <v>636761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>903</v>
@@ -5545,13 +5557,13 @@
         <v>672248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>1475</v>
@@ -5560,13 +5572,13 @@
         <v>1309009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5593,13 @@
         <v>727701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1046</v>
@@ -5596,13 +5608,13 @@
         <v>873746</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1721</v>
@@ -5611,18 +5623,18 @@
         <v>1601447</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5634,13 +5646,13 @@
         <v>122055</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -5649,13 +5661,13 @@
         <v>172608</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -5664,19 +5676,19 @@
         <v>294663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>844</v>
@@ -5685,13 +5697,13 @@
         <v>843348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>1271</v>
@@ -5700,13 +5712,13 @@
         <v>973695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>2115</v>
@@ -5715,13 +5727,13 @@
         <v>1817043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5748,13 @@
         <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1559</v>
@@ -5751,13 +5763,13 @@
         <v>1146303</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>2565</v>
@@ -5766,13 +5778,13 @@
         <v>2111706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5801,13 @@
         <v>420607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>944</v>
@@ -5804,13 +5816,13 @@
         <v>630677</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>1496</v>
@@ -5819,19 +5831,19 @@
         <v>1051284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>2823</v>
@@ -5840,13 +5852,13 @@
         <v>2963551</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>4416</v>
@@ -5855,13 +5867,13 @@
         <v>3172541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>7239</v>
@@ -5870,13 +5882,13 @@
         <v>6136092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5903,13 @@
         <v>3384158</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>5360</v>
@@ -5906,13 +5918,13 @@
         <v>3803218</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>8735</v>
@@ -5921,18 +5933,18 @@
         <v>7187376</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4128056-9DAC-4DC5-B756-0A9304FA74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{144CE76F-7BBE-403B-81FA-66F3A9A4C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F6E2FE2-E96A-482A-9B48-3E5A8EF546E1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A20ED90E-A50F-40BC-B314-738E3014F9FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,21%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1168 +140,1162 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>88,65%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>73,03%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F0B3F9-0D58-4D87-989F-1527E96890C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCF5502-67CB-4171-9F98-03BEE076DA0C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2463,7 +2457,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -2472,13 +2466,13 @@
         <v>70602</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -2487,13 +2481,13 @@
         <v>126922</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2502,13 @@
         <v>885902</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>930</v>
@@ -2523,13 +2517,13 @@
         <v>968010</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1860</v>
@@ -2538,13 +2532,13 @@
         <v>1853912</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2606,13 @@
         <v>190649</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>259</v>
@@ -2627,13 +2621,13 @@
         <v>266762</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>456</v>
@@ -2642,13 +2636,13 @@
         <v>457412</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2657,13 @@
         <v>3084876</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>3038</v>
@@ -2678,25 +2672,25 @@
         <v>3112436</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>6054</v>
       </c>
       <c r="N20" s="7">
-        <v>6197311</v>
+        <v>6197310</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2741,7 +2735,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2776,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C33598A-6130-4F51-A599-BB8F7D836F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270D28F8-5E04-42B6-BD08-4CD6E225D7B9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3243,10 +3237,10 @@
         <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3255,13 @@
         <v>915717</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>828</v>
@@ -3276,13 +3270,13 @@
         <v>907986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1672</v>
@@ -3291,13 +3285,13 @@
         <v>1823702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,10 +3362,10 @@
         <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -3380,13 +3374,13 @@
         <v>98834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -3395,13 +3389,13 @@
         <v>167618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,10 +3413,10 @@
         <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>616</v>
@@ -3431,13 +3425,13 @@
         <v>677449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1245</v>
@@ -3446,13 +3440,13 @@
         <v>1365203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3514,13 @@
         <v>96839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -3535,13 +3529,13 @@
         <v>121969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -3550,13 +3544,13 @@
         <v>218809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3565,13 @@
         <v>849091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>885</v>
@@ -3586,13 +3580,13 @@
         <v>926794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1706</v>
@@ -3601,13 +3595,13 @@
         <v>1775885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3669,13 @@
         <v>351988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>400</v>
@@ -3690,13 +3684,13 @@
         <v>435567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>716</v>
@@ -3705,13 +3699,13 @@
         <v>787555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3720,13 @@
         <v>3069194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>2887</v>
@@ -3741,13 +3735,13 @@
         <v>3110513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>5774</v>
@@ -3756,10 +3750,10 @@
         <v>6179706</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>226</v>
@@ -3839,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4011102E-E2F4-461C-8F28-9E01579D8648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7816B9-36CD-40F6-B865-F69B70B05A60}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3993,13 +3987,13 @@
         <v>28651</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4008,13 @@
         <v>100019</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -4029,13 +4023,13 @@
         <v>101236</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -4044,13 +4038,13 @@
         <v>201255</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>62058</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>75</v>
@@ -4133,13 +4127,13 @@
         <v>79461</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -4148,13 +4142,13 @@
         <v>141519</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4163,13 @@
         <v>496196</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -4184,13 +4178,13 @@
         <v>480018</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>952</v>
@@ -4199,13 +4193,13 @@
         <v>976214</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4267,13 @@
         <v>97710</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>107</v>
@@ -4288,13 +4282,13 @@
         <v>125208</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>201</v>
@@ -4303,13 +4297,13 @@
         <v>222918</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>924721</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>870</v>
@@ -4339,13 +4333,13 @@
         <v>917705</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1727</v>
@@ -4354,13 +4348,13 @@
         <v>1842426</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,10 +4455,10 @@
         <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4473,13 @@
         <v>687379</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -4494,13 +4488,13 @@
         <v>723435</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1310</v>
@@ -4509,13 +4503,13 @@
         <v>1410814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4577,13 @@
         <v>70095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -4601,10 +4595,10 @@
         <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -4613,13 +4607,13 @@
         <v>181676</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4628,13 @@
         <v>867472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>866</v>
@@ -4649,13 +4643,13 @@
         <v>932197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="M17" s="7">
         <v>1725</v>
@@ -4664,13 +4658,13 @@
         <v>1799670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4732,13 @@
         <v>318563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4753,13 +4747,13 @@
         <v>389951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>656</v>
@@ -4768,13 +4762,13 @@
         <v>708514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4783,13 @@
         <v>3075787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>2999</v>
@@ -4804,13 +4798,13 @@
         <v>3154591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>5913</v>
@@ -4819,13 +4813,13 @@
         <v>6230378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A47F3BD-24B1-4B36-8245-8983FE86199D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64364D4-CC4D-4CC8-93A7-B19AE772AFBF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,13 +5020,13 @@
         <v>12228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -5041,13 +5035,13 @@
         <v>24255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5056,13 +5050,13 @@
         <v>36483</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5071,13 @@
         <v>89754</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>183</v>
@@ -5092,13 +5086,13 @@
         <v>106478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>283</v>
@@ -5107,13 +5101,13 @@
         <v>196232</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5175,13 @@
         <v>80206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -5196,13 +5190,13 @@
         <v>89080</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>306</v>
@@ -5211,13 +5205,13 @@
         <v>169286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5226,13 @@
         <v>469617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>805</v>
@@ -5247,13 +5241,13 @@
         <v>503882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>1302</v>
@@ -5262,13 +5256,13 @@
         <v>973499</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5330,13 @@
         <v>115178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>262</v>
@@ -5351,13 +5345,13 @@
         <v>143236</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>416</v>
@@ -5366,13 +5360,13 @@
         <v>258414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5381,13 @@
         <v>924070</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>1254</v>
@@ -5402,13 +5396,13 @@
         <v>916238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>2064</v>
@@ -5417,13 +5411,13 @@
         <v>1840308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,10 +5488,10 @@
         <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -5506,13 +5500,13 @@
         <v>201498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -5521,13 +5515,13 @@
         <v>292438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,10 +5539,10 @@
         <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>903</v>
@@ -5557,13 +5551,13 @@
         <v>672248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>1475</v>
@@ -5572,13 +5566,13 @@
         <v>1309009</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5640,13 @@
         <v>122055</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -5661,13 +5655,13 @@
         <v>172608</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>450</v>
@@ -5676,13 +5670,13 @@
         <v>294663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5691,13 @@
         <v>843348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>1271</v>
@@ -5712,13 +5706,13 @@
         <v>973695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>2115</v>
@@ -5727,13 +5721,13 @@
         <v>1817043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5795,13 @@
         <v>420607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>944</v>
@@ -5816,13 +5810,13 @@
         <v>630677</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>1496</v>
@@ -5831,13 +5825,13 @@
         <v>1051284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5846,13 @@
         <v>2963551</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>4416</v>
@@ -5867,28 +5861,28 @@
         <v>3172541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>7239</v>
       </c>
       <c r="N20" s="7">
-        <v>6136092</v>
+        <v>6136091</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5924,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{144CE76F-7BBE-403B-81FA-66F3A9A4C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA261C3E-480F-4FB8-9FFC-141018BE3E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A20ED90E-A50F-40BC-B314-738E3014F9FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{319F93C7-B679-46DE-8BB3-92099C221D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1234 +68,1033 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCF5502-67CB-4171-9F98-03BEE076DA0C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D75740D-D32B-43A8-9676-2C6C30F65CB3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1825,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>5529</v>
+        <v>40796</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1840,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I4" s="7">
-        <v>9849</v>
+        <v>57534</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1855,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="N4" s="7">
-        <v>15379</v>
+        <v>98330</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1876,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>100</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>109829</v>
+        <v>652198</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1891,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>117</v>
+        <v>638</v>
       </c>
       <c r="I5" s="7">
-        <v>102906</v>
+        <v>630817</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1906,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1279</v>
       </c>
       <c r="N5" s="7">
-        <v>212734</v>
+        <v>1283015</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1927,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1942,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1957,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1980,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>35266</v>
+        <v>56233</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1995,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>47685</v>
+        <v>87992</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2010,10 +1809,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="N7" s="7">
-        <v>82951</v>
+        <v>144225</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2031,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>541</v>
+        <v>841</v>
       </c>
       <c r="D8" s="7">
-        <v>542370</v>
+        <v>905567</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2046,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>521</v>
+        <v>826</v>
       </c>
       <c r="I8" s="7">
-        <v>527911</v>
+        <v>880401</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2061,10 +1860,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1062</v>
+        <v>1667</v>
       </c>
       <c r="N8" s="7">
-        <v>1070281</v>
+        <v>1785968</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2082,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2097,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2112,10 +1911,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2135,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>56233</v>
+        <v>37301</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2150,10 +1949,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>87992</v>
+        <v>50634</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2165,10 +1964,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>144225</v>
+        <v>87934</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2186,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>841</v>
+        <v>604</v>
       </c>
       <c r="D11" s="7">
-        <v>905567</v>
+        <v>641208</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2201,10 +2000,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>826</v>
+        <v>644</v>
       </c>
       <c r="I11" s="7">
-        <v>880401</v>
+        <v>633207</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2216,10 +2015,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1667</v>
+        <v>1248</v>
       </c>
       <c r="N11" s="7">
-        <v>1785968</v>
+        <v>1274416</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2237,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2267,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>37301</v>
+        <v>56320</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2302,37 +2101,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7">
+        <v>70602</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7">
-        <v>50634</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>131</v>
+      </c>
+      <c r="N13" s="7">
+        <v>126922</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>89</v>
-      </c>
-      <c r="N13" s="7">
-        <v>87934</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,49 +2140,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>604</v>
+        <v>930</v>
       </c>
       <c r="D14" s="7">
-        <v>641208</v>
+        <v>885902</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>930</v>
+      </c>
+      <c r="I14" s="7">
+        <v>968010</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>644</v>
-      </c>
-      <c r="I14" s="7">
-        <v>633207</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1860</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1853912</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1248</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1274416</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2422,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2439,55 +2238,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="D16" s="7">
-        <v>56320</v>
+        <v>190649</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>259</v>
+      </c>
+      <c r="I16" s="7">
+        <v>266762</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70602</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>456</v>
+      </c>
+      <c r="N16" s="7">
+        <v>457412</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>131</v>
-      </c>
-      <c r="N16" s="7">
-        <v>126922</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,49 +2295,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>930</v>
+        <v>3016</v>
       </c>
       <c r="D17" s="7">
-        <v>885902</v>
+        <v>3084876</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3038</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3112435</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>930</v>
-      </c>
-      <c r="I17" s="7">
-        <v>968010</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6054</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6197310</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>1860</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1853912</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2562,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2577,10 +2376,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2593,171 +2392,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>197</v>
-      </c>
-      <c r="D19" s="7">
-        <v>190649</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>259</v>
-      </c>
-      <c r="I19" s="7">
-        <v>266762</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>456</v>
-      </c>
-      <c r="N19" s="7">
-        <v>457412</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3016</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3084876</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3038</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3112436</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6054</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6197310</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2770,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270D28F8-5E04-42B6-BD08-4CD6E225D7B9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E930F4CB-DFB8-43CA-AA26-F0A2D08F3831}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2787,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2888,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>14812</v>
+        <v>84134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>19401</v>
+        <v>96055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="N4" s="7">
-        <v>34214</v>
+        <v>180189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,49 +2582,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>593</v>
       </c>
       <c r="D5" s="7">
-        <v>100140</v>
+        <v>616632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="I5" s="7">
-        <v>92504</v>
+        <v>598283</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>186</v>
+        <v>1151</v>
       </c>
       <c r="N5" s="7">
-        <v>192643</v>
+        <v>1214915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114952</v>
+        <v>700766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3005,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>694338</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3020,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1319</v>
       </c>
       <c r="N6" s="7">
-        <v>226857</v>
+        <v>1395104</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3043,49 +2686,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7">
-        <v>69322</v>
+        <v>102230</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="I7" s="7">
-        <v>76653</v>
+        <v>118709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="N7" s="7">
-        <v>145975</v>
+        <v>220940</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>488</v>
+        <v>844</v>
       </c>
       <c r="D8" s="7">
-        <v>516492</v>
+        <v>915717</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>477</v>
+        <v>828</v>
       </c>
       <c r="I8" s="7">
-        <v>505780</v>
+        <v>907986</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>965</v>
+        <v>1672</v>
       </c>
       <c r="N8" s="7">
-        <v>1022272</v>
+        <v>1823702</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3160,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>582433</v>
+        <v>1026695</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3175,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1168247</v>
+        <v>2044642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3198,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>102230</v>
+        <v>68784</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>118709</v>
+        <v>98834</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>220940</v>
+        <v>167618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>844</v>
+        <v>629</v>
       </c>
       <c r="D11" s="7">
-        <v>915717</v>
+        <v>687754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>828</v>
+        <v>616</v>
       </c>
       <c r="I11" s="7">
-        <v>907986</v>
+        <v>677449</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1672</v>
+        <v>1245</v>
       </c>
       <c r="N11" s="7">
-        <v>1823702</v>
+        <v>1365203</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3315,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1026695</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3330,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2044642</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3353,49 +2996,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>68784</v>
+        <v>96839</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="I13" s="7">
-        <v>98834</v>
+        <v>121969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="N13" s="7">
-        <v>167618</v>
+        <v>218809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,49 +3047,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>629</v>
+        <v>821</v>
       </c>
       <c r="D14" s="7">
-        <v>687754</v>
+        <v>849091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>616</v>
+        <v>885</v>
       </c>
       <c r="I14" s="7">
-        <v>677449</v>
+        <v>926794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1245</v>
+        <v>1706</v>
       </c>
       <c r="N14" s="7">
-        <v>1365203</v>
+        <v>1775885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>945930</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3470,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3485,10 +3128,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1908</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1994694</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3502,55 +3145,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="D16" s="7">
-        <v>96839</v>
+        <v>351988</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="I16" s="7">
-        <v>121969</v>
+        <v>435567</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>202</v>
+        <v>716</v>
       </c>
       <c r="N16" s="7">
-        <v>218809</v>
+        <v>787555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,49 +3202,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>821</v>
+        <v>2887</v>
       </c>
       <c r="D17" s="7">
-        <v>849091</v>
+        <v>3069193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>885</v>
+        <v>2887</v>
       </c>
       <c r="I17" s="7">
-        <v>926794</v>
+        <v>3110513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>1706</v>
+        <v>5774</v>
       </c>
       <c r="N17" s="7">
-        <v>1775885</v>
+        <v>6179706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3203</v>
       </c>
       <c r="D18" s="7">
-        <v>945930</v>
+        <v>3421181</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3625,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3287</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3546080</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3640,10 +3283,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1908</v>
+        <v>6490</v>
       </c>
       <c r="N18" s="7">
-        <v>1994694</v>
+        <v>6967261</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3656,171 +3299,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>316</v>
-      </c>
-      <c r="D19" s="7">
-        <v>351988</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="7">
-        <v>400</v>
-      </c>
-      <c r="I19" s="7">
-        <v>435567</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>716</v>
-      </c>
-      <c r="N19" s="7">
-        <v>787555</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2887</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3069194</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2887</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3110513</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5774</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6179706</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421182</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3546080</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6490</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6967261</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3833,8 +3320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7816B9-36CD-40F6-B865-F69B70B05A60}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535247C3-1B77-42D3-A62C-F31475640BFC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3850,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>16527</v>
+        <v>78585</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>12124</v>
+        <v>91585</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="N4" s="7">
-        <v>28651</v>
+        <v>170170</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>572</v>
       </c>
       <c r="D5" s="7">
-        <v>100019</v>
+        <v>596215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>579</v>
       </c>
       <c r="I5" s="7">
-        <v>101236</v>
+        <v>581254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
-        <v>199</v>
+        <v>1151</v>
       </c>
       <c r="N5" s="7">
-        <v>201255</v>
+        <v>1177469</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +3555,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4083,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4106,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7">
-        <v>62058</v>
+        <v>97710</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I7" s="7">
-        <v>79461</v>
+        <v>125208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="M7" s="7">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>141519</v>
+        <v>222918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,49 +3644,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>476</v>
+        <v>857</v>
       </c>
       <c r="D8" s="7">
-        <v>496196</v>
+        <v>924721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>476</v>
+        <v>870</v>
       </c>
       <c r="I8" s="7">
-        <v>480018</v>
+        <v>917705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
-        <v>952</v>
+        <v>1727</v>
       </c>
       <c r="N8" s="7">
-        <v>976214</v>
+        <v>1842426</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4223,10 +3710,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4238,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4261,49 +3748,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>97710</v>
+        <v>72173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>125208</v>
+        <v>61576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>222918</v>
+        <v>133749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,49 +3799,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>857</v>
+        <v>626</v>
       </c>
       <c r="D11" s="7">
-        <v>924721</v>
+        <v>687379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
-        <v>870</v>
+        <v>684</v>
       </c>
       <c r="I11" s="7">
-        <v>917705</v>
+        <v>723435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
-        <v>1727</v>
+        <v>1310</v>
       </c>
       <c r="N11" s="7">
-        <v>1842426</v>
+        <v>1410814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +3865,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4393,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4416,49 +3903,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>72173</v>
+        <v>70095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>61576</v>
+        <v>111582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>133749</v>
+        <v>181676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,49 +3954,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>626</v>
+        <v>859</v>
       </c>
       <c r="D14" s="7">
-        <v>687379</v>
+        <v>867472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>684</v>
+        <v>866</v>
       </c>
       <c r="I14" s="7">
-        <v>723435</v>
+        <v>932197</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>1310</v>
+        <v>1725</v>
       </c>
       <c r="N14" s="7">
-        <v>1410814</v>
+        <v>1799670</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,10 +4005,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4548,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4565,55 +4052,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="D16" s="7">
-        <v>70095</v>
+        <v>318563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
-        <v>93</v>
+        <v>339</v>
       </c>
       <c r="I16" s="7">
-        <v>111582</v>
+        <v>389951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
-        <v>166</v>
+        <v>656</v>
       </c>
       <c r="N16" s="7">
-        <v>181676</v>
+        <v>708514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>859</v>
+        <v>2914</v>
       </c>
       <c r="D17" s="7">
-        <v>867472</v>
+        <v>3075787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
-        <v>866</v>
+        <v>2999</v>
       </c>
       <c r="I17" s="7">
-        <v>932197</v>
+        <v>3154591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
-        <v>1725</v>
+        <v>5913</v>
       </c>
       <c r="N17" s="7">
-        <v>1799670</v>
+        <v>6230378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4703,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4719,171 +4206,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>317</v>
-      </c>
-      <c r="D19" s="7">
-        <v>318563</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>339</v>
-      </c>
-      <c r="I19" s="7">
-        <v>389951</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M19" s="7">
-        <v>656</v>
-      </c>
-      <c r="N19" s="7">
-        <v>708514</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2914</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3075787</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2999</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3154591</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5913</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6230378</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4896,8 +4227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64364D4-CC4D-4CC8-93A7-B19AE772AFBF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA1BFA4-D604-4F26-AE7A-BC224C0F0CC7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4913,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5014,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D4" s="7">
-        <v>12228</v>
+        <v>87809</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="I4" s="7">
-        <v>24255</v>
+        <v>105465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="N4" s="7">
-        <v>36483</v>
+        <v>193274</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>100</v>
+        <v>597</v>
       </c>
       <c r="D5" s="7">
-        <v>89754</v>
+        <v>547632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
-        <v>183</v>
+        <v>988</v>
       </c>
       <c r="I5" s="7">
-        <v>106478</v>
+        <v>570287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
-        <v>283</v>
+        <v>1585</v>
       </c>
       <c r="N5" s="7">
-        <v>196232</v>
+        <v>1117920</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5131,10 +4462,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5146,10 +4477,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5169,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D7" s="7">
-        <v>80206</v>
+        <v>107629</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="I7" s="7">
-        <v>89080</v>
+        <v>130610</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="N7" s="7">
-        <v>169286</v>
+        <v>238239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>497</v>
+        <v>810</v>
       </c>
       <c r="D8" s="7">
-        <v>469617</v>
+        <v>1085235</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
-        <v>805</v>
+        <v>1254</v>
       </c>
       <c r="I8" s="7">
-        <v>503882</v>
+        <v>827496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>1302</v>
+        <v>2064</v>
       </c>
       <c r="N8" s="7">
-        <v>973499</v>
+        <v>1912732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5286,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5301,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5324,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>115178</v>
+        <v>85896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>143236</v>
+        <v>287176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
-        <v>416</v>
+        <v>246</v>
       </c>
       <c r="N10" s="7">
-        <v>258414</v>
+        <v>373072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>810</v>
+        <v>572</v>
       </c>
       <c r="D11" s="7">
-        <v>924070</v>
+        <v>617788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
-        <v>1254</v>
+        <v>903</v>
       </c>
       <c r="I11" s="7">
-        <v>916238</v>
+        <v>645624</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
-        <v>2064</v>
+        <v>1475</v>
       </c>
       <c r="N11" s="7">
-        <v>1840308</v>
+        <v>1263412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5441,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5456,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5479,49 +4810,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D13" s="7">
-        <v>90940</v>
+        <v>114604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="I13" s="7">
-        <v>201498</v>
+        <v>155156</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="N13" s="7">
-        <v>292438</v>
+        <v>269761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>572</v>
+        <v>844</v>
       </c>
       <c r="D14" s="7">
-        <v>636761</v>
+        <v>812227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
-        <v>903</v>
+        <v>1271</v>
       </c>
       <c r="I14" s="7">
-        <v>672248</v>
+        <v>936218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
-        <v>1475</v>
+        <v>2115</v>
       </c>
       <c r="N14" s="7">
-        <v>1309009</v>
+        <v>1748444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5596,10 +4927,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5611,10 +4942,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5628,55 +4959,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>162</v>
+        <v>552</v>
       </c>
       <c r="D16" s="7">
-        <v>122055</v>
+        <v>395938</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>288</v>
+        <v>944</v>
       </c>
       <c r="I16" s="7">
-        <v>172608</v>
+        <v>678408</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
-        <v>450</v>
+        <v>1496</v>
       </c>
       <c r="N16" s="7">
-        <v>294663</v>
+        <v>1074346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>844</v>
+        <v>2823</v>
       </c>
       <c r="D17" s="7">
-        <v>843348</v>
+        <v>3062882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
-        <v>1271</v>
+        <v>4416</v>
       </c>
       <c r="I17" s="7">
-        <v>973695</v>
+        <v>2979625</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>2115</v>
+        <v>7239</v>
       </c>
       <c r="N17" s="7">
-        <v>1817043</v>
+        <v>6042507</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5751,10 +5082,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5766,10 +5097,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8735</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116853</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5782,171 +5113,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>552</v>
-      </c>
-      <c r="D19" s="7">
-        <v>420607</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H19" s="7">
-        <v>944</v>
-      </c>
-      <c r="I19" s="7">
-        <v>630677</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1496</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1051284</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2823</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2963551</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4416</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3172541</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7239</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6136091</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
